--- a/backend/auxiliar/albireo.plate-coefs.xlsx
+++ b/backend/auxiliar/albireo.plate-coefs.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.983240781359933e-09</v>
+        <v>-2.980526221283645e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.948083206392901e-10</v>
+        <v>-4.977854365888885e-10</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.889885170265883e-09</v>
+        <v>-1.890600013711483e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.471308728769324e-08</v>
+        <v>-1.468938305717871e-08</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.597186653293507e-09</v>
+        <v>-1.593689294654378e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>1.150238683744008e-08</v>
+        <v>1.148202732173608e-08</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-9.53917195495313e-06</v>
+        <v>-9.545902341312473e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002425396779111195</v>
+        <v>0.0002420995257978106</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002775271059941298</v>
+        <v>-0.0002774258594273327</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.92255258529051e-06</v>
+        <v>-7.925592411032328e-06</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>293.1014268649891</v>
+        <v>293.0979522448744</v>
       </c>
       <c r="D7" t="n">
-        <v>27.83791654399425</v>
+        <v>27.79237842361255</v>
       </c>
     </row>
   </sheetData>

--- a/backend/auxiliar/albireo.plate-coefs.xlsx
+++ b/backend/auxiliar/albireo.plate-coefs.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.980526221283645e-09</v>
+        <v>-2.980280285904378e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.977854365888885e-10</v>
+        <v>-4.979088179626369e-10</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.890600013711483e-09</v>
+        <v>-1.89179144411749e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.468938305717871e-08</v>
+        <v>-1.468942389450439e-08</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.593689294654378e-09</v>
+        <v>-1.59268949515446e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>1.148202732173608e-08</v>
+        <v>1.148165809479058e-08</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-9.545902341312473e-06</v>
+        <v>-9.525417218381182e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002420995257978106</v>
+        <v>0.0002420978610970133</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.0002774258594273327</v>
+        <v>-0.0002774257905276689</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.925592411032328e-06</v>
+        <v>-7.937639010087427e-06</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>293.0979522448744</v>
+        <v>293.0995028651066</v>
       </c>
       <c r="D7" t="n">
-        <v>27.79237842361255</v>
+        <v>27.79234015530411</v>
       </c>
     </row>
   </sheetData>
